--- a/result/God_3.xlsx
+++ b/result/God_3.xlsx
@@ -732,157 +732,157 @@
         <v>52</v>
       </c>
       <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>92</v>
+      </c>
+      <c r="F2">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>63</v>
+      </c>
+      <c r="J2">
+        <v>62</v>
+      </c>
+      <c r="K2">
+        <v>62</v>
+      </c>
+      <c r="L2">
+        <v>71</v>
+      </c>
+      <c r="M2">
+        <v>63</v>
+      </c>
+      <c r="N2">
+        <v>79</v>
+      </c>
+      <c r="O2">
+        <v>61</v>
+      </c>
+      <c r="P2">
+        <v>87</v>
+      </c>
+      <c r="Q2">
+        <v>77</v>
+      </c>
+      <c r="R2">
+        <v>81</v>
+      </c>
+      <c r="S2">
+        <v>83</v>
+      </c>
+      <c r="T2">
+        <v>69</v>
+      </c>
+      <c r="U2">
+        <v>74</v>
+      </c>
+      <c r="V2">
+        <v>64</v>
+      </c>
+      <c r="W2">
+        <v>54</v>
+      </c>
+      <c r="X2">
+        <v>69</v>
+      </c>
+      <c r="Y2">
+        <v>64</v>
+      </c>
+      <c r="Z2">
+        <v>81</v>
+      </c>
+      <c r="AA2">
+        <v>78</v>
+      </c>
+      <c r="AB2">
         <v>73</v>
       </c>
-      <c r="C2">
-        <v>41</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
-      </c>
-      <c r="E2">
+      <c r="AC2">
+        <v>78</v>
+      </c>
+      <c r="AD2">
+        <v>56</v>
+      </c>
+      <c r="AE2">
+        <v>51</v>
+      </c>
+      <c r="AF2">
+        <v>58</v>
+      </c>
+      <c r="AG2">
+        <v>76</v>
+      </c>
+      <c r="AH2">
+        <v>55</v>
+      </c>
+      <c r="AI2">
+        <v>82</v>
+      </c>
+      <c r="AJ2">
+        <v>64</v>
+      </c>
+      <c r="AK2">
+        <v>80</v>
+      </c>
+      <c r="AL2">
+        <v>83</v>
+      </c>
+      <c r="AM2">
+        <v>64</v>
+      </c>
+      <c r="AN2">
+        <v>69</v>
+      </c>
+      <c r="AO2">
+        <v>59</v>
+      </c>
+      <c r="AP2">
+        <v>98</v>
+      </c>
+      <c r="AQ2">
+        <v>67</v>
+      </c>
+      <c r="AR2">
+        <v>89</v>
+      </c>
+      <c r="AS2">
+        <v>67</v>
+      </c>
+      <c r="AT2">
+        <v>69</v>
+      </c>
+      <c r="AU2">
         <v>72</v>
       </c>
-      <c r="F2">
-        <v>41</v>
-      </c>
-      <c r="G2">
-        <v>44</v>
-      </c>
-      <c r="H2">
-        <v>45</v>
-      </c>
-      <c r="I2">
-        <v>37</v>
-      </c>
-      <c r="J2">
-        <v>49</v>
-      </c>
-      <c r="K2">
-        <v>49</v>
-      </c>
-      <c r="L2">
-        <v>57</v>
-      </c>
-      <c r="M2">
-        <v>51</v>
-      </c>
-      <c r="N2">
-        <v>56</v>
-      </c>
-      <c r="O2">
-        <v>50</v>
-      </c>
-      <c r="P2">
-        <v>67</v>
-      </c>
-      <c r="Q2">
-        <v>61</v>
-      </c>
-      <c r="R2">
+      <c r="AV2">
+        <v>66</v>
+      </c>
+      <c r="AW2">
         <v>64</v>
       </c>
-      <c r="S2">
+      <c r="AX2">
+        <v>100</v>
+      </c>
+      <c r="AY2">
         <v>66</v>
       </c>
-      <c r="T2">
-        <v>53</v>
-      </c>
-      <c r="U2">
-        <v>56</v>
-      </c>
-      <c r="V2">
-        <v>51</v>
-      </c>
-      <c r="W2">
-        <v>43</v>
-      </c>
-      <c r="X2">
-        <v>55</v>
-      </c>
-      <c r="Y2">
-        <v>52</v>
-      </c>
-      <c r="Z2">
-        <v>66</v>
-      </c>
-      <c r="AA2">
-        <v>63</v>
-      </c>
-      <c r="AB2">
-        <v>56</v>
-      </c>
-      <c r="AC2">
-        <v>66</v>
-      </c>
-      <c r="AD2">
-        <v>45</v>
-      </c>
-      <c r="AE2">
-        <v>43</v>
-      </c>
-      <c r="AF2">
-        <v>46</v>
-      </c>
-      <c r="AG2">
-        <v>63</v>
-      </c>
-      <c r="AH2">
-        <v>44</v>
-      </c>
-      <c r="AI2">
-        <v>65</v>
-      </c>
-      <c r="AJ2">
-        <v>62</v>
-      </c>
-      <c r="AK2">
-        <v>63</v>
-      </c>
-      <c r="AL2">
-        <v>66</v>
-      </c>
-      <c r="AM2">
-        <v>51</v>
-      </c>
-      <c r="AN2">
-        <v>55</v>
-      </c>
-      <c r="AO2">
-        <v>56</v>
-      </c>
-      <c r="AP2">
-        <v>79</v>
-      </c>
-      <c r="AQ2">
-        <v>61</v>
-      </c>
-      <c r="AR2">
-        <v>71</v>
-      </c>
-      <c r="AS2">
-        <v>53</v>
-      </c>
-      <c r="AT2">
-        <v>51</v>
-      </c>
-      <c r="AU2">
-        <v>61</v>
-      </c>
-      <c r="AV2">
-        <v>53</v>
-      </c>
-      <c r="AW2">
-        <v>51</v>
-      </c>
-      <c r="AX2">
-        <v>66</v>
-      </c>
-      <c r="AY2">
-        <v>51</v>
-      </c>
       <c r="AZ2">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:52">
@@ -890,157 +890,157 @@
         <v>53</v>
       </c>
       <c r="B3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>57</v>
       </c>
-      <c r="E3">
-        <v>99</v>
-      </c>
-      <c r="F3">
-        <v>56</v>
-      </c>
       <c r="G3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3">
         <v>59</v>
       </c>
       <c r="J3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3">
         <v>65</v>
       </c>
       <c r="L3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O3">
         <v>65</v>
       </c>
       <c r="P3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R3">
+        <v>86</v>
+      </c>
+      <c r="S3">
         <v>85</v>
       </c>
-      <c r="S3">
-        <v>86</v>
-      </c>
       <c r="T3">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="U3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3">
         <v>58</v>
       </c>
       <c r="W3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Z3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AC3">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD3">
         <v>53</v>
       </c>
       <c r="AE3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF3">
         <v>58</v>
       </c>
       <c r="AG3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK3">
         <v>77</v>
       </c>
       <c r="AL3">
+        <v>94</v>
+      </c>
+      <c r="AM3">
+        <v>71</v>
+      </c>
+      <c r="AN3">
+        <v>72</v>
+      </c>
+      <c r="AO3">
+        <v>73</v>
+      </c>
+      <c r="AP3">
+        <v>93</v>
+      </c>
+      <c r="AQ3">
+        <v>88</v>
+      </c>
+      <c r="AR3">
         <v>100</v>
       </c>
-      <c r="AM3">
-        <v>72</v>
-      </c>
-      <c r="AN3">
-        <v>70</v>
-      </c>
-      <c r="AO3">
-        <v>65</v>
-      </c>
-      <c r="AP3">
-        <v>89</v>
-      </c>
-      <c r="AQ3">
-        <v>90</v>
-      </c>
-      <c r="AR3">
-        <v>97</v>
-      </c>
       <c r="AS3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AT3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AU3">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AV3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AW3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AX3">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AY3">
         <v>65</v>
       </c>
       <c r="AZ3">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:52">
@@ -1206,157 +1206,157 @@
         <v>55</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5">
         <v>55</v>
       </c>
       <c r="G5">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <v>69</v>
+      </c>
+      <c r="M5">
+        <v>63</v>
+      </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>58</v>
+      </c>
+      <c r="P5">
+        <v>77</v>
+      </c>
+      <c r="Q5">
+        <v>76</v>
+      </c>
+      <c r="R5">
+        <v>76</v>
+      </c>
+      <c r="S5">
+        <v>83</v>
+      </c>
+      <c r="T5">
+        <v>73</v>
+      </c>
+      <c r="U5">
+        <v>64</v>
+      </c>
+      <c r="V5">
         <v>59</v>
       </c>
-      <c r="H5">
+      <c r="W5">
+        <v>48</v>
+      </c>
+      <c r="X5">
         <v>63</v>
       </c>
-      <c r="I5">
-        <v>83</v>
-      </c>
-      <c r="J5">
-        <v>61</v>
-      </c>
-      <c r="K5">
+      <c r="Y5">
+        <v>57</v>
+      </c>
+      <c r="Z5">
+        <v>81</v>
+      </c>
+      <c r="AA5">
+        <v>70</v>
+      </c>
+      <c r="AB5">
+        <v>68</v>
+      </c>
+      <c r="AC5">
+        <v>80</v>
+      </c>
+      <c r="AD5">
+        <v>53</v>
+      </c>
+      <c r="AE5">
+        <v>54</v>
+      </c>
+      <c r="AF5">
+        <v>58</v>
+      </c>
+      <c r="AG5">
+        <v>48</v>
+      </c>
+      <c r="AH5">
+        <v>48</v>
+      </c>
+      <c r="AI5">
+        <v>71</v>
+      </c>
+      <c r="AJ5">
+        <v>88</v>
+      </c>
+      <c r="AK5">
+        <v>67</v>
+      </c>
+      <c r="AL5">
+        <v>81</v>
+      </c>
+      <c r="AM5">
         <v>64</v>
       </c>
-      <c r="L5">
-        <v>74</v>
-      </c>
-      <c r="M5">
-        <v>67</v>
-      </c>
-      <c r="N5">
-        <v>65</v>
-      </c>
-      <c r="O5">
-        <v>64</v>
-      </c>
-      <c r="P5">
-        <v>83</v>
-      </c>
-      <c r="Q5">
-        <v>79</v>
-      </c>
-      <c r="R5">
-        <v>80</v>
-      </c>
-      <c r="S5">
-        <v>90</v>
-      </c>
-      <c r="T5">
-        <v>76</v>
-      </c>
-      <c r="U5">
-        <v>70</v>
-      </c>
-      <c r="V5">
-        <v>62</v>
-      </c>
-      <c r="W5">
-        <v>51</v>
-      </c>
-      <c r="X5">
-        <v>68</v>
-      </c>
-      <c r="Y5">
-        <v>59</v>
-      </c>
-      <c r="Z5">
-        <v>84</v>
-      </c>
-      <c r="AA5">
-        <v>76</v>
-      </c>
-      <c r="AB5">
-        <v>77</v>
-      </c>
-      <c r="AC5">
+      <c r="AN5">
+        <v>62</v>
+      </c>
+      <c r="AO5">
+        <v>55</v>
+      </c>
+      <c r="AP5">
         <v>85</v>
-      </c>
-      <c r="AD5">
-        <v>59</v>
-      </c>
-      <c r="AE5">
-        <v>56</v>
-      </c>
-      <c r="AF5">
-        <v>64</v>
-      </c>
-      <c r="AG5">
-        <v>51</v>
-      </c>
-      <c r="AH5">
-        <v>52</v>
-      </c>
-      <c r="AI5">
-        <v>77</v>
-      </c>
-      <c r="AJ5">
-        <v>90</v>
-      </c>
-      <c r="AK5">
-        <v>71</v>
-      </c>
-      <c r="AL5">
-        <v>87</v>
-      </c>
-      <c r="AM5">
-        <v>71</v>
-      </c>
-      <c r="AN5">
-        <v>67</v>
-      </c>
-      <c r="AO5">
-        <v>59</v>
-      </c>
-      <c r="AP5">
-        <v>92</v>
       </c>
       <c r="AQ5">
         <v>100</v>
       </c>
       <c r="AR5">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AS5">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AT5">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AU5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AV5">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AW5">
+        <v>53</v>
+      </c>
+      <c r="AX5">
+        <v>78</v>
+      </c>
+      <c r="AY5">
+        <v>61</v>
+      </c>
+      <c r="AZ5">
         <v>57</v>
-      </c>
-      <c r="AX5">
-        <v>89</v>
-      </c>
-      <c r="AY5">
-        <v>65</v>
-      </c>
-      <c r="AZ5">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:52">
@@ -1364,157 +1364,157 @@
         <v>56</v>
       </c>
       <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>63</v>
+      </c>
+      <c r="H6">
+        <v>49</v>
+      </c>
+      <c r="I6">
+        <v>85</v>
+      </c>
+      <c r="J6">
+        <v>54</v>
+      </c>
+      <c r="K6">
+        <v>57</v>
+      </c>
+      <c r="L6">
+        <v>68</v>
+      </c>
+      <c r="M6">
+        <v>59</v>
+      </c>
+      <c r="N6">
+        <v>66</v>
+      </c>
+      <c r="O6">
+        <v>57</v>
+      </c>
+      <c r="P6">
+        <v>76</v>
+      </c>
+      <c r="Q6">
+        <v>69</v>
+      </c>
+      <c r="R6">
+        <v>63</v>
+      </c>
+      <c r="S6">
+        <v>84</v>
+      </c>
+      <c r="T6">
+        <v>71</v>
+      </c>
+      <c r="U6">
         <v>75</v>
       </c>
-      <c r="C6">
-        <v>68</v>
-      </c>
-      <c r="D6">
+      <c r="V6">
+        <v>60</v>
+      </c>
+      <c r="W6">
         <v>53</v>
       </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-      <c r="F6">
-        <v>55</v>
-      </c>
-      <c r="G6">
-        <v>61</v>
-      </c>
-      <c r="H6">
+      <c r="X6">
+        <v>75</v>
+      </c>
+      <c r="Y6">
+        <v>61</v>
+      </c>
+      <c r="Z6">
+        <v>79</v>
+      </c>
+      <c r="AA6">
+        <v>70</v>
+      </c>
+      <c r="AB6">
+        <v>73</v>
+      </c>
+      <c r="AC6">
+        <v>62</v>
+      </c>
+      <c r="AD6">
+        <v>58</v>
+      </c>
+      <c r="AE6">
+        <v>59</v>
+      </c>
+      <c r="AF6">
+        <v>56</v>
+      </c>
+      <c r="AG6">
+        <v>59</v>
+      </c>
+      <c r="AH6">
         <v>46</v>
       </c>
-      <c r="I6">
-        <v>65</v>
-      </c>
-      <c r="J6">
-        <v>52</v>
-      </c>
-      <c r="K6">
-        <v>55</v>
-      </c>
-      <c r="L6">
-        <v>65</v>
-      </c>
-      <c r="M6">
-        <v>58</v>
-      </c>
-      <c r="N6">
-        <v>65</v>
-      </c>
-      <c r="O6">
-        <v>55</v>
-      </c>
-      <c r="P6">
-        <v>72</v>
-      </c>
-      <c r="Q6">
-        <v>66</v>
-      </c>
-      <c r="R6">
-        <v>60</v>
-      </c>
-      <c r="S6">
-        <v>79</v>
-      </c>
-      <c r="T6">
+      <c r="AI6">
         <v>73</v>
-      </c>
-      <c r="U6">
-        <v>68</v>
-      </c>
-      <c r="V6">
-        <v>57</v>
-      </c>
-      <c r="W6">
-        <v>51</v>
-      </c>
-      <c r="X6">
-        <v>71</v>
-      </c>
-      <c r="Y6">
-        <v>59</v>
-      </c>
-      <c r="Z6">
-        <v>77</v>
-      </c>
-      <c r="AA6">
-        <v>66</v>
-      </c>
-      <c r="AB6">
-        <v>76</v>
-      </c>
-      <c r="AC6">
-        <v>59</v>
-      </c>
-      <c r="AD6">
-        <v>56</v>
-      </c>
-      <c r="AE6">
-        <v>57</v>
-      </c>
-      <c r="AF6">
-        <v>54</v>
-      </c>
-      <c r="AG6">
-        <v>56</v>
-      </c>
-      <c r="AH6">
-        <v>44</v>
-      </c>
-      <c r="AI6">
-        <v>69</v>
       </c>
       <c r="AJ6">
         <v>76</v>
       </c>
       <c r="AK6">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AL6">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AM6">
+        <v>61</v>
+      </c>
+      <c r="AN6">
+        <v>60</v>
+      </c>
+      <c r="AO6">
+        <v>52</v>
+      </c>
+      <c r="AP6">
+        <v>82</v>
+      </c>
+      <c r="AQ6">
+        <v>85</v>
+      </c>
+      <c r="AR6">
+        <v>84</v>
+      </c>
+      <c r="AS6">
         <v>58</v>
       </c>
-      <c r="AN6">
-        <v>57</v>
-      </c>
-      <c r="AO6">
-        <v>50</v>
-      </c>
-      <c r="AP6">
+      <c r="AT6">
+        <v>54</v>
+      </c>
+      <c r="AU6">
+        <v>55</v>
+      </c>
+      <c r="AV6">
+        <v>56</v>
+      </c>
+      <c r="AW6">
+        <v>59</v>
+      </c>
+      <c r="AX6">
         <v>79</v>
       </c>
-      <c r="AQ6">
-        <v>83</v>
-      </c>
-      <c r="AR6">
-        <v>80</v>
-      </c>
-      <c r="AS6">
-        <v>56</v>
-      </c>
-      <c r="AT6">
-        <v>51</v>
-      </c>
-      <c r="AU6">
-        <v>50</v>
-      </c>
-      <c r="AV6">
-        <v>54</v>
-      </c>
-      <c r="AW6">
-        <v>57</v>
-      </c>
-      <c r="AX6">
-        <v>100</v>
-      </c>
       <c r="AY6">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AZ6">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:52">
@@ -2154,157 +2154,157 @@
         <v>61</v>
       </c>
       <c r="B11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>61</v>
+      </c>
+      <c r="J11">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <v>73</v>
+      </c>
+      <c r="M11">
+        <v>49</v>
+      </c>
+      <c r="N11">
+        <v>61</v>
+      </c>
+      <c r="O11">
+        <v>59</v>
+      </c>
+      <c r="P11">
+        <v>88</v>
+      </c>
+      <c r="Q11">
+        <v>63</v>
+      </c>
+      <c r="R11">
+        <v>77</v>
+      </c>
+      <c r="S11">
+        <v>84</v>
+      </c>
+      <c r="T11">
+        <v>70</v>
+      </c>
+      <c r="U11">
+        <v>56</v>
+      </c>
+      <c r="V11">
+        <v>60</v>
+      </c>
+      <c r="W11">
+        <v>50</v>
+      </c>
+      <c r="X11">
+        <v>72</v>
+      </c>
+      <c r="Y11">
+        <v>64</v>
+      </c>
+      <c r="Z11">
+        <v>79</v>
+      </c>
+      <c r="AA11">
         <v>76</v>
       </c>
-      <c r="D11">
+      <c r="AB11">
+        <v>76</v>
+      </c>
+      <c r="AC11">
+        <v>70</v>
+      </c>
+      <c r="AD11">
+        <v>66</v>
+      </c>
+      <c r="AE11">
+        <v>46</v>
+      </c>
+      <c r="AF11">
+        <v>57</v>
+      </c>
+      <c r="AG11">
         <v>59</v>
       </c>
-      <c r="E11">
-        <v>97</v>
-      </c>
-      <c r="F11">
-        <v>57</v>
-      </c>
-      <c r="G11">
-        <v>62</v>
-      </c>
-      <c r="H11">
-        <v>61</v>
-      </c>
-      <c r="I11">
-        <v>67</v>
-      </c>
-      <c r="J11">
-        <v>54</v>
-      </c>
-      <c r="K11">
-        <v>65</v>
-      </c>
-      <c r="L11">
-        <v>75</v>
-      </c>
-      <c r="M11">
-        <v>54</v>
-      </c>
-      <c r="N11">
-        <v>67</v>
-      </c>
-      <c r="O11">
-        <v>61</v>
-      </c>
-      <c r="P11">
-        <v>89</v>
-      </c>
-      <c r="Q11">
-        <v>67</v>
-      </c>
-      <c r="R11">
-        <v>76</v>
-      </c>
-      <c r="S11">
-        <v>85</v>
-      </c>
-      <c r="T11">
-        <v>72</v>
-      </c>
-      <c r="U11">
+      <c r="AH11">
         <v>50</v>
       </c>
-      <c r="V11">
-        <v>61</v>
-      </c>
-      <c r="W11">
-        <v>51</v>
-      </c>
-      <c r="X11">
-        <v>73</v>
-      </c>
-      <c r="Y11">
-        <v>65</v>
-      </c>
-      <c r="Z11">
-        <v>87</v>
-      </c>
-      <c r="AA11">
+      <c r="AI11">
+        <v>84</v>
+      </c>
+      <c r="AJ11">
         <v>79</v>
-      </c>
-      <c r="AB11">
-        <v>85</v>
-      </c>
-      <c r="AC11">
-        <v>69</v>
-      </c>
-      <c r="AD11">
-        <v>68</v>
-      </c>
-      <c r="AE11">
-        <v>51</v>
-      </c>
-      <c r="AF11">
-        <v>58</v>
-      </c>
-      <c r="AG11">
-        <v>65</v>
-      </c>
-      <c r="AH11">
-        <v>52</v>
-      </c>
-      <c r="AI11">
-        <v>85</v>
-      </c>
-      <c r="AJ11">
-        <v>80</v>
       </c>
       <c r="AK11">
         <v>71</v>
       </c>
       <c r="AL11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AM11">
+        <v>60</v>
+      </c>
+      <c r="AN11">
+        <v>65</v>
+      </c>
+      <c r="AO11">
+        <v>67</v>
+      </c>
+      <c r="AP11">
+        <v>88</v>
+      </c>
+      <c r="AQ11">
+        <v>88</v>
+      </c>
+      <c r="AR11">
+        <v>95</v>
+      </c>
+      <c r="AS11">
+        <v>65</v>
+      </c>
+      <c r="AT11">
+        <v>55</v>
+      </c>
+      <c r="AU11">
+        <v>54</v>
+      </c>
+      <c r="AV11">
         <v>63</v>
       </c>
-      <c r="AN11">
-        <v>67</v>
-      </c>
-      <c r="AO11">
-        <v>71</v>
-      </c>
-      <c r="AP11">
-        <v>93</v>
-      </c>
-      <c r="AQ11">
-        <v>80</v>
-      </c>
-      <c r="AR11">
-        <v>100</v>
-      </c>
-      <c r="AS11">
-        <v>67</v>
-      </c>
-      <c r="AT11">
+      <c r="AW11">
         <v>58</v>
       </c>
-      <c r="AU11">
-        <v>51</v>
-      </c>
-      <c r="AV11">
-        <v>64</v>
-      </c>
-      <c r="AW11">
-        <v>60</v>
-      </c>
       <c r="AX11">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AY11">
         <v>67</v>
       </c>
       <c r="AZ11">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:52">
